--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.7398217979718</v>
+        <v>10.752749</v>
       </c>
       <c r="H2">
-        <v>10.7398217979718</v>
+        <v>32.258247</v>
       </c>
       <c r="I2">
-        <v>0.2553202960185456</v>
+        <v>0.2551491597938751</v>
       </c>
       <c r="J2">
-        <v>0.2553202960185456</v>
+        <v>0.2551491597938751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.5997272158018</v>
+        <v>93.85711466666667</v>
       </c>
       <c r="N2">
-        <v>1.5997272158018</v>
+        <v>281.571344</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>17.18078522307691</v>
+        <v>1009.221995874885</v>
       </c>
       <c r="R2">
-        <v>17.18078522307691</v>
+        <v>9082.997962873967</v>
       </c>
       <c r="S2">
-        <v>0.2553202960185456</v>
+        <v>0.2551491597938751</v>
       </c>
       <c r="T2">
-        <v>0.2553202960185456</v>
+        <v>0.2551491597938751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.8350498012493</v>
+        <v>19.86979433333333</v>
       </c>
       <c r="H3">
-        <v>19.8350498012493</v>
+        <v>59.60938299999999</v>
       </c>
       <c r="I3">
-        <v>0.4715432790285171</v>
+        <v>0.4714851364453034</v>
       </c>
       <c r="J3">
-        <v>0.4715432790285171</v>
+        <v>0.4714851364453035</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.5997272158018</v>
+        <v>93.85711466666667</v>
       </c>
       <c r="N3">
-        <v>1.5997272158018</v>
+        <v>281.571344</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>31.73066899384259</v>
+        <v>1864.92156514675</v>
       </c>
       <c r="R3">
-        <v>31.73066899384259</v>
+        <v>16784.29408632075</v>
       </c>
       <c r="S3">
-        <v>0.4715432790285171</v>
+        <v>0.4714851364453034</v>
       </c>
       <c r="T3">
-        <v>0.4715432790285171</v>
+        <v>0.4714851364453035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4892414597411</v>
+        <v>11.52044866666667</v>
       </c>
       <c r="H4">
-        <v>11.4892414597411</v>
+        <v>34.561346</v>
       </c>
       <c r="I4">
-        <v>0.2731364249529373</v>
+        <v>0.2733657037608214</v>
       </c>
       <c r="J4">
-        <v>0.2731364249529373</v>
+        <v>0.2733657037608214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.5997272158018</v>
+        <v>93.85711466666667</v>
       </c>
       <c r="N4">
-        <v>1.5997272158018</v>
+        <v>281.571344</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>18.37965225206624</v>
+        <v>1081.276071518781</v>
       </c>
       <c r="R4">
-        <v>18.37965225206624</v>
+        <v>9731.484643669024</v>
       </c>
       <c r="S4">
-        <v>0.2731364249529373</v>
+        <v>0.2733657037608214</v>
       </c>
       <c r="T4">
-        <v>0.2731364249529373</v>
+        <v>0.2733657037608214</v>
       </c>
     </row>
   </sheetData>
